--- a/data/trans_dic/P3A$otraSIcobra-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02373738996616421</v>
+        <v>0.02373738996616422</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01964472562450967</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01196853118819544</v>
+        <v>0.01214909602806571</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01033027061515131</v>
+        <v>0.01030794716904383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0131597943811452</v>
+        <v>0.01346516201426432</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04254634461873924</v>
+        <v>0.0430586081886418</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03623374716449209</v>
+        <v>0.03468601295444902</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03186417633519727</v>
+        <v>0.03339958850467412</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01155066961606021</v>
+        <v>0.01330559067972662</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01971467411464399</v>
+        <v>0.02014896071960599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01962605647242407</v>
+        <v>0.01842129127931734</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04167461880012674</v>
+        <v>0.0452325396110721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0424716465542224</v>
+        <v>0.04400156742713054</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03886737708897323</v>
+        <v>0.03872642256842469</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02860386681899799</v>
+        <v>0.02737197097223666</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03943625351339371</v>
+        <v>0.03804390677007643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03827113870694525</v>
+        <v>0.03700130129153759</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06765535172110633</v>
+        <v>0.06664337352555623</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07640640986175047</v>
+        <v>0.07441030691044113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06406260577010378</v>
+        <v>0.06503446704526897</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.05007309787890799</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0437061946799887</v>
+        <v>0.04370619467998871</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.04669419582845284</v>
+        <v>0.04669419582845283</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03108385486752</v>
+        <v>0.03071551995678735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03133423386324905</v>
+        <v>0.03125334542636349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03454010156746094</v>
+        <v>0.0341265554592307</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08413158577403411</v>
+        <v>0.08292817465331193</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06173878012508345</v>
+        <v>0.06417004021756563</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06393897078272735</v>
+        <v>0.06325198336126994</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.01252048840514799</v>
+        <v>0.01252048840514798</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.01172964334793368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.01210344448428912</v>
+        <v>0.01210344448428911</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003553252704778125</v>
+        <v>0.003647776556952605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004799646612958498</v>
+        <v>0.005265641748073893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006677613359396138</v>
+        <v>0.006144389947940115</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02941794857015512</v>
+        <v>0.03273029479354474</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02375122243742628</v>
+        <v>0.02371102163247506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02175844114849843</v>
+        <v>0.02169181670441665</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.03116793602232992</v>
+        <v>0.03116793602232991</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.04841186641646027</v>
+        <v>0.04841186641646025</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.03967767463083725</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01940926419745341</v>
+        <v>0.01885610867930903</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03095790112047837</v>
+        <v>0.03020477088293393</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02780139968777168</v>
+        <v>0.02850832288652801</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0484318363043958</v>
+        <v>0.04882810273287343</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07241049581383757</v>
+        <v>0.07386172681538039</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05353381485005228</v>
+        <v>0.05441458128867062</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.03940889962884846</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05374064220390197</v>
+        <v>0.05374064220390198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04682633871117726</v>
+        <v>0.04682633871117727</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02511967049712888</v>
+        <v>0.02613367431171387</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04113480850796492</v>
+        <v>0.04058594377155283</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03698957618737258</v>
+        <v>0.0373422953809937</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05876162259089613</v>
+        <v>0.05896922352212241</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06768355470894374</v>
+        <v>0.07072769064243434</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05962554392637882</v>
+        <v>0.06097800185128729</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007892661263868355</v>
+        <v>0.007963331032637067</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01655757829362295</v>
+        <v>0.01650123558772556</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01432664171413478</v>
+        <v>0.01434298150431067</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02397193675799886</v>
+        <v>0.02379070629605579</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03536243116232675</v>
+        <v>0.03480481823803715</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02627122561877994</v>
+        <v>0.02643462693185188</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0241882333306379</v>
+        <v>0.02416439059867408</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03234714416498347</v>
+        <v>0.0315665311109557</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0298497194843199</v>
+        <v>0.02972976473708566</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03619139624328958</v>
+        <v>0.0362026724435433</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04288759910046998</v>
+        <v>0.04258775700192215</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03729726621372113</v>
+        <v>0.03723553474181183</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3816</v>
+        <v>3874</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3265</v>
+        <v>3258</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8355</v>
+        <v>8549</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13566</v>
+        <v>13729</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11452</v>
+        <v>10963</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20231</v>
+        <v>21206</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6129</v>
+        <v>7061</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10774</v>
+        <v>11011</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21140</v>
+        <v>19842</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22115</v>
+        <v>24003</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23211</v>
+        <v>24047</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41866</v>
+        <v>41714</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9021</v>
+        <v>8633</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14005</v>
+        <v>13511</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25662</v>
+        <v>24810</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21337</v>
+        <v>21018</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27135</v>
+        <v>26426</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42955</v>
+        <v>43607</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11599</v>
+        <v>11461</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13222</v>
+        <v>13188</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>27463</v>
+        <v>27134</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31393</v>
+        <v>30944</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26051</v>
+        <v>27077</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50838</v>
+        <v>50292</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1099</v>
+        <v>1205</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2899</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6036</v>
+        <v>6716</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5437</v>
+        <v>5428</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9445</v>
+        <v>9416</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5254</v>
+        <v>5104</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8165</v>
+        <v>7967</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>14859</v>
+        <v>15236</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13111</v>
+        <v>13218</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19098</v>
+        <v>19481</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28612</v>
+        <v>29082</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18078</v>
+        <v>18808</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>31758</v>
+        <v>31335</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55179</v>
+        <v>55705</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42290</v>
+        <v>42439</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>52256</v>
+        <v>54606</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88946</v>
+        <v>90964</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>6299</v>
+        <v>6355</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>13765</v>
+        <v>13718</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23344</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>19131</v>
+        <v>18987</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>29398</v>
+        <v>28934</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>42806</v>
+        <v>43073</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>85425</v>
+        <v>85341</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>120840</v>
+        <v>117923</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>216929</v>
+        <v>216057</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>127816</v>
+        <v>127856</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>160216</v>
+        <v>159095</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>271053</v>
+        <v>270605</v>
       </c>
     </row>
     <row r="40">
